--- a/albums.xlsx
+++ b/albums.xlsx
@@ -13,16 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="280">
   <si>
-    <t>Место</t>
-  </si>
-  <si>
-    <t>Исполнитель</t>
-  </si>
-  <si>
-    <t>Альбом</t>
-  </si>
-  <si>
-    <t>Жанр</t>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>genre</t>
   </si>
   <si>
     <t>Sombr</t>
